--- a/Lazada_Moringa_11-03-2025.xlsx
+++ b/Lazada_Moringa_11-03-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>moringa daun sehat bisa (COD) 1150gram dan 575gram</t>
+          <t>Bubuk minuman moringa kemasan repack 1 Kg Bonus 150 Gr Cod</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rp50.000</t>
+          <t>Rp110.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GoodPowder25</t>
+          <t>Aether Herb's</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,85 +506,20 @@
           <t>Kota Pontianak</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11 Terjual</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.lazada.co.id/products/moringa-daun-sehat-bisa-cod-1150gram-dan-575gram-i8392162084.html</t>
+          <t>https://www.lazada.co.id/products/bubuk-minuman-moringa-kemasan-repack-1-kg-bonus-150-gr-cod-i8385564875.html</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>SELAMAT DATANG
-DI TOKO GoodPoweder
-- ( YANG PAHAM YA)
-- (BONUS DI SATUKAN DALAM 1 KEMASAN YA)
-- OPEN RESELLER (AMANAH DAN TERPERCAYA)
-CHAT ADMIN
-Produk Kalimantan
-Langsung dari Distributor utama kalimantan
-Jika produk masih bisa di beli tanda nya produk selalu ready , silahkan order tanpa ragu ya ( jika ragu bisa chat admin )
-🌿 Produk Asli Kalimantan
-🍃 Kwalitas Bubuk Nano Powder
-🍃 Pengiriman Setiap hari Senin - Sabtu ( Hari minggu libur ) Orderan Sabtu malam akan dikirim di hari senin
-Untuk jam pengiriman setiap hari 17.00
-Order di bawah jam 17.00 akan dikirim di hari yang sama
-Cara penyajian :
-1. Ambil 1 ujung sendok teh bubuk masukan dalam gelas
-2. Tuangkan air panas/hangat kedalam gelas secukupnya
-3. Bisa di campurkan dengan bahan minuman lain nya seperti ( kopi , susu , madu , dan lain lain )
-Spesifikasi dari moringa daun sehat bisa (COD) 1150gram dan 575gram
-Merek No Brand SKU 8392162084_ID-14829806778 Tempat diproduksi Indonesia Jenis Kemasan Multi-Pak unit_metric Pcs shelf_expiry Benar Bahan-bahan Teh Tekstur Produk Bubuk Jenis Garansi tidak ada jaminan
-Kualifikasi
-Tipe Lisensi
-ID_BPOM_Registration_Number
-Kode Lisensi
-LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bubuk minuman moringa kemasan repack 1 Kg Bonus 150 Gr Cod</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rp110.000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Aether Herb's</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kota Pontianak</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 Terjual</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/bubuk-minuman-moringa-kemasan-repack-1-kg-bonus-150-gr-cod-i8385564875.html</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>SEMUA BONUS AKAN DISATUKAN DALAM SATU KEMASAN YA
 Spesifikasi dari Bubuk minuman moringa kemasan repack 1 Kg Bonus 150 Gr Cod
@@ -596,404 +531,92 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dar Bumi Paket Bulking Alami Moringa Daun Kelor Bubuk Premium Dan Madu Murni 350 Gram Varian Raw Honey</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rp64.900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dari Bumi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DARI BUMI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Kota Jakarta Barat</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>449 Terjual</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.lazada.co.id/products/dar-bumi-paket-bulking-alami-moringa-daun-kelor-bubuk-premium-dan-madu-murni-350-gram-varian-raw-honey-i8249122400.html</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>LIHAT LEBIH BANYAK</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dar Bumi Paket Bulking Alami Moringa Daun Kelor Bubuk Premium Dan Madu Murni 350 Gram Varian Raw Honey</t>
+          <t>bubuk daun kelor kemasan 1kg, bubuk murni 100% asli tanpa campuran / Moringa powder</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rp64.900</t>
+          <t>Rp50.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dari Bumi</t>
+          <t>NewV2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DARI BUMI</t>
+          <t>No Brand</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kota Jakarta Barat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>449 Terjual</t>
-        </is>
-      </c>
+          <t>Kota Surabaya</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.lazada.co.id/products/dar-bumi-paket-bulking-alami-moringa-daun-kelor-bubuk-premium-dan-madu-murni-350-gram-varian-raw-honey-i8249122400.html</t>
+          <t>https://www.lazada.co.id/products/bubuk-daun-kelor-kemasan-1kg-bubuk-murni-100-asli-tanpa-campuran-moringa-powder-i8378660388.html</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Daun Kelor Moringa Bubuk Organik 450 Gr Premium Pure Organik Dari Bumi</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rp47.500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dari Bumi</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DARI BUMI</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kota Jakarta Barat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.5K Terjual</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/daun-kelor-moringa-bubuk-organik-450-gr-premium-pure-organik-dari-bumi-i7549106805.html</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Daun Kelor Bubuk Safiya 350 Gram Moringa Powder Original Safiya</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rp12.500</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kurma Alif</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KURMA ALIF</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Kota Jakarta Barat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.7K Terjual</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/daun-kelor-bubuk-safiya-350-gram-moringa-powder-original-safiya-i1669978478.html</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TERSEDIA PEMBAYARAN COD"Toko Kurma Alif" (Toko Online Oleh Oleh Haji Murah dan Terpercaya)Assalamualaikum Wr. Wb.Serbuk Daun Kelor herbal
-Netto: 100 gr Daun kelor sendiri menyimpan sejuta manfaat yang baik untuk kesehatan. Daun kelor juga mengandung berbagai zat atay nutrisi yang sangat beragam dan lengkap. Daun kelor kaya dengan vitamin A, C, B1, B2, B3, dan berbagai mineral penting lainnya. Barang yang akan kami kirimkan telah melalui proses penyortiran yang teliti sehingga dipastikan menjadi barang yang terbaik dan berkualitas dikelasnya.Wassalamualaikum Wr. Wb.
-"Toko Kurma Alif" (Toko Online Oleh Oleh Haji Murah dan Terpercaya)
-Assalamualaikum Wr. Wb.
-Serbuk Daun Kelor (Moringa)
-Daun kelor sendiri menyimpan sejuta manfaat yang baik untuk kesehatan. Daun kelor juga mengandung berbagai zat atay nutrisi yang sangat beragam dan lengkap. Daun kelor kaya dengan vitamin A, C, B1, B2, B3, dan berbagai mineral penting lainnya.
-Manfaat Serbuk Daun Kelor:
-- Melindungi tubuh Anda dari radikal bebas- Menurunkan kadar gula dalam darah- Mengurangi peradangan- Menurunkan kadar kolesterol- Menyehatkan Mata- Sebagai Anti-Penuaan Dini
-Barang yang akan kami kirimkan telah melalui proses penyortiran yang teliti
-Toko Kurma Alif juga menyediakan berbagai jenis kurma, kismis, kacang arab, henna, coklat arab, tasbih dan oleh oleh haji lainnya. untuk informasi produk kami lainnya silahkan melihat di etalase/kategori di toko online kami
-Wassalamualaikum Wr. Wb.
-LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Daun Kelor Moringa Bubuk 400 Gr Premium Pure Organic - Padangb ulan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rp18.999</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>KURMUD ID</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kota Jakarta Selatan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>262 Terjual</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/daun-kelor-moringa-bubuk-400-gr-premium-pure-organic-padangb-ulan-i8186644265.html</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jamu herbal kapsul tradisional De Moringa Sari Daun kelor</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rp35.000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GKP De Herbal</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Kab. Bandung</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>86 Terjual</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/jamu-herbal-kapsul-tradisional-de-moringa-sari-daun-kelor-i8265214431.html</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Silahkan di order untuk cara penggunaan ada dalam kemasan
-Untuk mengobati pegal linu asam urat nyeri sendi dll
-Produk original Terimaksih
-Spesifikasi dari Jamu herbal kapsul tradisional De Moringa Sari Daun kelor
-Merek No Brand SKU 8265214431_ID-14675882409 Jenis Kemasan Paket Tunggal Bahan-bahan Jamu,Kelor Tekstur Produk Kapsul</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Daun Kelor Moringa Bubuk Dari Bumi Serbuk Kelor Organik</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rp44.500</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Kurma Alif</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KURMA ALIF</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Kota Jakarta Barat</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.7K Terjual</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/daun-kelor-moringa-bubuk-dari-bumi-serbuk-kelor-organik-i1188038662.html</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TERSEDIA PEMBAYARAN COD"Toko Kurma Alif" (Toko Online Oleh Oleh Haji Murah dan Terpercaya)Assalamualaikum Wr. Wb.Serbuk Daun Kelor herbalNetto: 250 gr Daun kelor sendiri menyimpan sejuta manfaat yang baik untuk kesehatan. Daun kelor juga mengandung berbagai zat atay nutrisi yang sangat beragam dan lengkap. Daun kelor kaya dengan vitamin A, C, B1, B2, B3, dan berbagai mineral penting lainnya. Barang yang akan kami kirimkan telah melalui proses penyortiran yang teliti sehingga dipastikan menjadi barang yang terbaik dan berkualitas dikelasnya.Wassalamualaikum Wr. Wb.
-"Toko Kurma Alif" (Toko Online Oleh Oleh Haji Murah dan Terpercaya)
-Assalamualaikum Wr. Wb.
-Serbuk Daun Kelor herbal (Moringa)
-Daun kelor sendiri menyimpan sejuta manfaat yang baik untuk kesehatan. Daun kelor juga mengandung berbagai zat atay nutrisi yang sangat beragam dan lengkap. Daun kelor kaya dengan vitamin A, C, B1, B2, B3, dan berbagai mineral penting lainnya.
-Manfaat Serbuk Daun Kelor:
-- Melindungi tubuh Anda dari radikal bebas- Menurunkan kadar gula dalam darah- Mengurangi peradangan- Menurunkan kadar kolesterol- Menyehatkan Mata- Sebagai Anti-Penuaan Dini
-Barang yang akan kami kirimkan telah melalui proses penyortiran yang teliti sehingga dipastikan menjadi barang yang terbaik dan berkualitas dikelasnya.
-Toko Kurma Alif juga menyediakan berbagai jenis kurma, kismis, kacang arab, henna, coklat arab, tasbih dan oleh oleh haji lainnya. untuk informasi produk kami lainnya silahkan melihat di etalase/kategori di toko online kami
-Wassalamualaikum Wr. Wb.
-LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Serbuk Daun Kelor 100 Gram | Powder Moringa Moringa Original Assyifa Ghaniyyu Shop</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rp9.500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>assyifa ghaniyyu shop</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Daun Kelor</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Kota Medan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>126 Terjual</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/serbuk-daun-kelor-100-gram-powder-moringa-moringa-original-assyifa-ghaniyyu-shop-i7735282978.html</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Assalamu'alaikum wr.wb
-Assyifa Ghaniyyu Shop
-Serbuk Daun Kelor Bubuk Moringa Powder 
-Aman dikonsumsi anak anak, ibu hamil dan menyusui, serta manula.
-&gt; MURNI 100% DAUN KELOR HIJAU DIKERINGKAN 
-&gt; Tanpa Campuran, Pengawet ataupun Pewarna
-&gt; Warna Hijau Segar Bright, karena diproses alami dan bukan daun Mati/Guguran Daun yg coklat tidak berkhasiat.
-&gt; Wangi Khas Moringa Segar, Wangi Moringa Sangat Tajam
-Berikut beberapa manfaat utama daun kelor:
-Daun kelor mengandung senyawa antioksidan seperti beta-karoten, quercetin, dan klorofil. Antioksidan ini membantu melawan radikal bebas dalam tubuh yang dapat menyebabkan kerusakan sel dan menyebabkan berbagai masalah kesehatan ,
-Kandungan vitamin C dalam daun kelor membantu meningkatkan sistem kekebalan tubuh, membantu melawan infeksi dan penyakit.
-Tingginya kandungan vitamin A dalam daun kelor bermanfaat untuk kesehatan mata dan dapat membantu mencegah masalah penglihatan seperti kebutaan malam.
-Beberapa penelitian menunjukkan bahwa ekstrak daun kelor dapat membantu menurunkan kadar kolesterol darah, yang berpotensi mengurangi risiko penyakit jantung.
-Daun kelor dapat membantu menjaga kesehatan jantung dengan mengendalikan tekanan darah dan meningkatkan fungsi pembuluh darah.
-Daun kelor dapat membantu mengatur gula darah, yang berguna bagi orang dengan diabetes.
-Kandungan vitamin E dalam daun kelor dapat mendukung kesehatan kulit dan membantu mengurangi masalah kulit seperti jerawat dan keriput.
-Daun kelor mengandung asam amino yang penting untuk pertumbuhan dan perkembangan yang sehat.
-Beberapa senyawa dalam daun kelor memiliki sifat antiinflamasi yang dapat membantu meredakan peradangan dalam tubuh.
-LIHAT LEBIH BANYAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>bubuk daun kelor murni 100% asli tanpa campuran / Moringa powder kemasan 1kg</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Rp50.000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>New V2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>No Brand</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Kota Surabaya</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://www.lazada.co.id/products/bubuk-daun-kelor-murni-100-asli-tanpa-campuran-moringa-powder-kemasan-1kg-i8373222666.html</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>bubuk daun kelor super 
 halus seperti bedak
-Bubuk daun kelor memiliki beberapa manfaat, antara lain:
+Bubuk daun kelor memiliki 
+beberapa manfaat, antara lain:
 1. Mengobati penyakit darah tinggi
 2. Mengobati penyakit diabetes
 3. Mengobati penyakit kanker
@@ -1004,24 +627,27 @@
 8. Mengobati penyakit pernapasan
 9. Mengobati penyakit pencernaan
 10. Meningkatkan kekebalan tubuh
-Bubuk daun kelor juga kaya akan nutrisi, 
-seperti protein, vitamin, dan mineral, 
-yang dapat membantu menjaga 
-kesehatan tubuh.
+Bubuk daun kelor juga kaya akan 
+nutrisi, seperti protein, vitamin, 
+dan mineral, yang dapat membantu 
+menjaga kesehatan tubuh.
 Komposisi : Daun Kelor 100%
 Cara penggunaan untuk minuman : 
-Ambil 2 sendok teh bubuk daun kelor 
-kemudian larutkan dengan 200ml air 
-mendidih kemudian saring siap dikonsumsi
+Ambil 2 sendok teh bubuk 
+daun kelor kemudian larutkan 
+dengan 200ml air mendidih
+kemudian saring dan siap dikonsumsi
 Cara penggunaan untuk masker : 
-ambil 2sendok makan bubuk daun kelor 
-lalu beri air secukupnya, siap digunakan untuk masker
+ambil 2sendok makan bubuk 
+daun kelor lalu beri air secukupnya,
+siap digunakan untuk masker
 PACKING : FREE Bubble Wrap
-berat : 1kg / 1.000gr
+berat : 1000gr
 Expired : 2027
 Kemasan : Menggunakan plastik
-Spesifikasi dari bubuk daun kelor murni 100% asli tanpa campuran / Moringa powder kemasan 1kg
-Merek No Brand SKU 8373222666_ID-14803740090 Tekstur Produk Bubuk</t>
+Spesifikasi dari bubuk daun kelor kemasan 1kg, bubuk murni 100% asli tanpa campuran / Moringa powder
+Merek No Brand SKU 8378660388_ID-14811300153 Tekstur Produk Bubuk
+LIHAT LEBIH BANYAK</t>
         </is>
       </c>
     </row>
